--- a/submission/LoongArch_USTC_2_laizeyuan/score_final.xlsx
+++ b/submission/LoongArch_USTC_2_laizeyuan/score_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\creep\submission\LoongArch_MOU_1_zhangsan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\creep\submission\LoongArch_USTC_2_laizeyuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D12C84D-E9A4-4E36-8818-B8A42EB71059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C509ECE-80E2-436D-9FC8-AF8F4BB06299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>队名</t>
   </si>
@@ -1021,6 +1021,10 @@
   </si>
   <si>
     <t>中国科学技术大学</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢建良、赵雅楠</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1029,9 +1033,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1375,14 +1379,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,13 +1398,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1418,10 +1422,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1463,67 +1467,67 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,13 +1536,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1847,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1871,32 +1872,34 @@
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="F3" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="47"/>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2013,11 +2016,11 @@
       <c r="J19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="48">
         <f>IF((C9=58),100,IF((C8=58),C8*0.5+C9/58*71,C8*0.5))</f>
         <v>100</v>
       </c>
-      <c r="L19" s="34"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -2025,33 +2028,33 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="31" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="28" t="s">
@@ -2063,20 +2066,20 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="45" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="43" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="J23" s="49"/>
+      <c r="H23" s="45"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="28" t="s">
         <v>29</v>
       </c>
@@ -2085,29 +2088,29 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="21" t="s">
         <v>36</v>
       </c>
@@ -2518,6 +2521,11 @@
     <protectedRange sqref="C2:D3 F2:G3 C8:C9 D25:E35 L23" name="区域1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="D22:F22"/>
@@ -2528,11 +2536,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="H22:H24"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="5">

--- a/submission/LoongArch_USTC_2_laizeyuan/score_final.xlsx
+++ b/submission/LoongArch_USTC_2_laizeyuan/score_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loongarch\creep\submission\LoongArch_USTC_2_laizeyuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C509ECE-80E2-436D-9FC8-AF8F4BB06299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F89BFCC-AE3E-4F33-86F9-206D00FFB9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>队名</t>
   </si>
@@ -353,9 +353,6 @@
     <t>CPU频率</t>
   </si>
   <si>
-    <t>50MHz</t>
-  </si>
-  <si>
     <t>数码管显示
 (CPU count)
 (最左开关拨下)</t>
@@ -421,9 +418,6 @@
     <t>bitcount</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>000572e5</t>
   </si>
   <si>
@@ -1025,6 +1019,94 @@
   </si>
   <si>
     <t>卢建良、赵雅楠</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>45MHz : 100MHz</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>45MHz</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6de3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b135</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b2191</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3c4b0b</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3f67e0</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>8d99ab</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2fcb23</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a363a</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1183df</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>26ece1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>34b5cd</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>17b7f8</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>17fc8d</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>354e7c</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>399189</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>19e785</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>14fe0</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2eb36</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>525198</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>250ac1</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1473,6 +1555,18 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,18 +1610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1872,34 +1954,34 @@
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="47"/>
+      <c r="C2" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="32"/>
       <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="47"/>
+      <c r="F2" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="47"/>
+      <c r="C3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="47"/>
+      <c r="F3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="32"/>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2016,11 +2098,11 @@
       <c r="J19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="33">
         <f>IF((C9=58),100,IF((C8=58),C8*0.5+C9/58*71,C8*0.5))</f>
         <v>100</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -2028,33 +2110,33 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="35" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="28" t="s">
@@ -2062,63 +2144,63 @@
       </c>
       <c r="L22" s="29">
         <f>GEOMEAN(H26:H35)</f>
-        <v>0.1</v>
+        <v>0.90718395368968896</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="J23" s="32"/>
+      <c r="H23" s="49"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="28" t="s">
         <v>29</v>
       </c>
       <c r="L23" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40" t="s">
+      <c r="H25" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2126,24 +2208,24 @@
         <v>1</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F26" s="24">
         <f>IF(HEX2DEC(D26),HEX2DEC(D26)/HEX2DEC(E26),0)</f>
-        <v>0</v>
+        <v>0.44990936237638829</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H26" s="25">
         <f>IF(HEX2DEC(D26),HEX2DEC(G26)/HEX2DEC(D26),0.1)</f>
-        <v>0.1</v>
+        <v>1.1612440611494297</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2151,24 +2233,24 @@
         <v>2</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" ref="F27:F35" si="0">IF(HEX2DEC(D27),HEX2DEC(D27)/HEX2DEC(E27),0)</f>
-        <v>0</v>
+        <v>0.44998685266455618</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H27" s="25">
         <f t="shared" ref="H27:H35" si="1">IF(HEX2DEC(D27),HEX2DEC(G27)/HEX2DEC(D27),0.1)</f>
-        <v>0.1</v>
+        <v>0.88681234937980336</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2176,24 +2258,24 @@
         <v>3</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44777996350182087</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H28" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1.0768075449539871</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,24 +2283,24 @@
         <v>4</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44998288964698657</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1.0694123450168331</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2226,24 +2308,24 @@
         <v>5</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44996744425441071</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.52945060899700402</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2251,24 +2333,24 @@
         <v>6</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F31" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44998209536613021</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1.095579455798418</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2276,24 +2358,24 @@
         <v>7</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F32" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44997309288678977</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.65999270983555147</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2301,24 +2383,24 @@
         <v>8</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F33" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44997480656985284</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1.1191486679676663</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2326,24 +2408,24 @@
         <v>9</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4495049297909936</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H34" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1.3195013025679196</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2351,29 +2433,29 @@
         <v>10</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44998276130524723</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.5631304362154157</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -2385,7 +2467,7 @@
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -2397,7 +2479,7 @@
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -2409,7 +2491,7 @@
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -2421,7 +2503,7 @@
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -2433,7 +2515,7 @@
     </row>
     <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -2445,7 +2527,7 @@
     </row>
     <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -2457,7 +2539,7 @@
     </row>
     <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2469,7 +2551,7 @@
     </row>
     <row r="45" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -2481,7 +2563,7 @@
     </row>
     <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2493,7 +2575,7 @@
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -2505,7 +2587,7 @@
     </row>
     <row r="48" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -2521,11 +2603,6 @@
     <protectedRange sqref="C2:D3 F2:G3 C8:C9 D25:E35 L23" name="区域1"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="D22:F22"/>
@@ -2536,6 +2613,11 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="H22:H24"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="5">
@@ -2587,33 +2669,33 @@
         <v>28</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2621,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="8">
         <f>HEX2DEC(C4)/HEX2DEC(D4)</f>
@@ -2639,13 +2721,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" ref="E5:E13" si="0">HEX2DEC(C5)/HEX2DEC(D5)</f>
@@ -2657,13 +2739,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -2675,13 +2757,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
@@ -2693,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
@@ -2711,13 +2793,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
@@ -2729,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
@@ -2747,13 +2829,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
@@ -2765,13 +2847,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
@@ -2783,13 +2865,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
